--- a/biology/Médecine/Louis_Gallavardin/Louis_Gallavardin.xlsx
+++ b/biology/Médecine/Louis_Gallavardin/Louis_Gallavardin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Benedict Gallavardin, né 20 août 1875 à Lyon et mort le 2 décembre 1957 à Lyon, est un médecin et cardiologue français, connu pour le phénomène de Gallavardin.
 Louis Gallavardin a étudié la médecine à la faculté de médecine de Lyon. Il devient interne en 1895 et médecin des hôpitaux de Lyon en 1902.
@@ -488,7 +500,7 @@
 Son livre "La tension Artérielle en clinique", publié en 1910, a été le texte de référence sur la mesure de la pression artérielle. Il a mis au point un tensiomètre humoral qui porte son nom, le tensiomètre Gallavardin.
 Il a démontré l'importance de l'électrocardiographie, et publié sur les arythmies, en particulier la tachycardie ventriculaire. Il a décrit un type de sténose aortique qui n'a pas d'origine rhumatismale, et décrit l'effort dans l'état de syncope. Il a étudié l'angine de poitrine, en décrivant le syndrome dans son ouvrage "Les Angines de poitrine" en 1925, démontrant que la maladie coronarienne en est la cause.
 Il a été président de la Société Française de Cardiologie de 1946 à 1948.
-Il a été inhumé à Saint-Priest[1].
+Il a été inhumé à Saint-Priest.
 </t>
         </is>
       </c>
@@ -517,7 +529,9 @@
           <t>Travaux et publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1901 : De l'asystolie progressive des jeunes sujets par myocardite subaigüe primitive. Arch. gén. méd.,
 1909 : Du rétrécissement aortique non-rhumatismal des jeunes sujets et de son analogie avec le rétrécissement mitral, de Duroziez. Lyon
